--- a/IPI.xlsx
+++ b/IPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eleonora\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46390167-7AEA-4398-A08A-B83C00CE9523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E806DA47-AE42-44DC-AE04-16D0B9452C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96F39540-9684-48B6-8573-235D3F301316}"/>
   </bookViews>
@@ -41,526 +41,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="177">
   <si>
-    <t xml:space="preserve">Chieti </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAquila </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pescara </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teramo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matera </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NaN </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potenza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catanzaro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cosenza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crotone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReggioCalabria </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ViboValentia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avellino </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benevento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caserta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napoli </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salerno </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bologna </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferrara </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForliCesena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piacenza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ravenna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReggioEmilia </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rimini </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorizia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pordenone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trieste </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frosinone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rieti </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roma </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 162 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 149 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viterbo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genova </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LaSpezia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savona </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergamo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brescia </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 37 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cremona </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecco </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 43 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lodi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantova </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milano </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 140 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 171 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 192 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 119 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MonzaBrianza </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sondrio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varese </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancona </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AscoliPiceno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fermo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macerata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PesaroUrbino </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campobasso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isernia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alessandria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asti </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biella </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuneo </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torino </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 69 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerbanoCusioOssola </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vercelli </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bari </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BarlettaAndriaTrani </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brindisi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foggia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taranto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cagliari </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuoro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oristano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sassari </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agrigento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caltanissetta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catania </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palermo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ragusa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siracusa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapani </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arezzo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firenze </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grosseto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livorno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MassaCarrara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pisa </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 68 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pistoia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prato </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolzano </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trento </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perugia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terni </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aosta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belluno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padova </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rovigo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treviso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verona </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicenza </t>
-  </si>
-  <si>
     <t>Provincia</t>
   </si>
   <si>
     <t>Anno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualità(backward) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Internazionalizzazione(Estensioni) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Time(mesi) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Diversificazione(classi) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Efficienza(numbrev) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Percentuale brevetti circular </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Percentuale brevetti green </t>
-  </si>
-  <si>
-    <t xml:space="preserve">copatenting </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> numero brevetti </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> numero brevetti circular </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> numero brevetti green </t>
   </si>
   <si>
     <t>IPI</t>
@@ -570,6 +54,522 @@
   </si>
   <si>
     <t>Coeff</t>
+  </si>
+  <si>
+    <t>Percentualebrevetticircular</t>
+  </si>
+  <si>
+    <t>Percentualebrevettigreen </t>
+  </si>
+  <si>
+    <t>copatenting</t>
+  </si>
+  <si>
+    <t>numerobrevetti</t>
+  </si>
+  <si>
+    <t>numerobrevetticircular</t>
+  </si>
+  <si>
+    <t>numerobrevettigreen</t>
+  </si>
+  <si>
+    <t>Chieti</t>
+  </si>
+  <si>
+    <t>11 </t>
+  </si>
+  <si>
+    <t>0 </t>
+  </si>
+  <si>
+    <t>7 </t>
+  </si>
+  <si>
+    <t>3 </t>
+  </si>
+  <si>
+    <t>2 </t>
+  </si>
+  <si>
+    <t>1 </t>
+  </si>
+  <si>
+    <t>Pescara</t>
+  </si>
+  <si>
+    <t>15 </t>
+  </si>
+  <si>
+    <t>Teramo</t>
+  </si>
+  <si>
+    <t>Matera</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>5 </t>
+  </si>
+  <si>
+    <t>Potenza</t>
+  </si>
+  <si>
+    <t>Catanzaro</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>10 </t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t>Avellino</t>
+  </si>
+  <si>
+    <t>4 </t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Caserta</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>20 </t>
+  </si>
+  <si>
+    <t>25 </t>
+  </si>
+  <si>
+    <t>Salerno</t>
+  </si>
+  <si>
+    <t>16 </t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>57 </t>
+  </si>
+  <si>
+    <t>28 </t>
+  </si>
+  <si>
+    <t>23 </t>
+  </si>
+  <si>
+    <t>13 </t>
+  </si>
+  <si>
+    <t>8 </t>
+  </si>
+  <si>
+    <t>Ferrara</t>
+  </si>
+  <si>
+    <t>19 </t>
+  </si>
+  <si>
+    <t>Modena</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Piacenza</t>
+  </si>
+  <si>
+    <t>Ravenna</t>
+  </si>
+  <si>
+    <t>14 </t>
+  </si>
+  <si>
+    <t>Rimini</t>
+  </si>
+  <si>
+    <t>9 </t>
+  </si>
+  <si>
+    <t>Gorizia</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Trieste</t>
+  </si>
+  <si>
+    <t>Udine</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Latina</t>
+  </si>
+  <si>
+    <t>Rieti</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>162 </t>
+  </si>
+  <si>
+    <t>89 </t>
+  </si>
+  <si>
+    <t>149 </t>
+  </si>
+  <si>
+    <t>59 </t>
+  </si>
+  <si>
+    <t>26 </t>
+  </si>
+  <si>
+    <t>Viterbo</t>
+  </si>
+  <si>
+    <t>Genova</t>
+  </si>
+  <si>
+    <t>17 </t>
+  </si>
+  <si>
+    <t>24 </t>
+  </si>
+  <si>
+    <t>Imperia</t>
+  </si>
+  <si>
+    <t>Savona</t>
+  </si>
+  <si>
+    <t>Bergamo</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>49 </t>
+  </si>
+  <si>
+    <t>37 </t>
+  </si>
+  <si>
+    <t>30 </t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cremona</t>
+  </si>
+  <si>
+    <t>Lecco</t>
+  </si>
+  <si>
+    <t>79 </t>
+  </si>
+  <si>
+    <t>43 </t>
+  </si>
+  <si>
+    <t>74 </t>
+  </si>
+  <si>
+    <t>Lodi</t>
+  </si>
+  <si>
+    <t>Mantova</t>
+  </si>
+  <si>
+    <t>27 </t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>140 </t>
+  </si>
+  <si>
+    <t>171 </t>
+  </si>
+  <si>
+    <t>192 </t>
+  </si>
+  <si>
+    <t>119 </t>
+  </si>
+  <si>
+    <t>31 </t>
+  </si>
+  <si>
+    <t>33 </t>
+  </si>
+  <si>
+    <t>Pavia</t>
+  </si>
+  <si>
+    <t>Sondrio</t>
+  </si>
+  <si>
+    <t>Varese</t>
+  </si>
+  <si>
+    <t>Ancona</t>
+  </si>
+  <si>
+    <t>Fermo</t>
+  </si>
+  <si>
+    <t>Macerata</t>
+  </si>
+  <si>
+    <t>Campobasso</t>
+  </si>
+  <si>
+    <t>Isernia</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Asti</t>
+  </si>
+  <si>
+    <t>Biella</t>
+  </si>
+  <si>
+    <t>Cuneo</t>
+  </si>
+  <si>
+    <t>21 </t>
+  </si>
+  <si>
+    <t>Novara</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>56 </t>
+  </si>
+  <si>
+    <t>95 </t>
+  </si>
+  <si>
+    <t>69 </t>
+  </si>
+  <si>
+    <t>50 </t>
+  </si>
+  <si>
+    <t>Vercelli</t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>Brindisi</t>
+  </si>
+  <si>
+    <t>Foggia</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Taranto</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Nuoro</t>
+  </si>
+  <si>
+    <t>Oristano</t>
+  </si>
+  <si>
+    <t>Sassari</t>
+  </si>
+  <si>
+    <t>Agrigento</t>
+  </si>
+  <si>
+    <t>Caltanissetta</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>Enna</t>
+  </si>
+  <si>
+    <t>Messina</t>
+  </si>
+  <si>
+    <t>Palermo</t>
+  </si>
+  <si>
+    <t>Ragusa</t>
+  </si>
+  <si>
+    <t>Siracusa</t>
+  </si>
+  <si>
+    <t>Trapani</t>
+  </si>
+  <si>
+    <t>Arezzo</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>36 </t>
+  </si>
+  <si>
+    <t>Grosseto</t>
+  </si>
+  <si>
+    <t>Livorno</t>
+  </si>
+  <si>
+    <t>Lucca</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>68 </t>
+  </si>
+  <si>
+    <t>Pistoia</t>
+  </si>
+  <si>
+    <t>Prato</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>58 </t>
+  </si>
+  <si>
+    <t>41 </t>
+  </si>
+  <si>
+    <t>29 </t>
+  </si>
+  <si>
+    <t>Trento</t>
+  </si>
+  <si>
+    <t>39 </t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Terni</t>
+  </si>
+  <si>
+    <t>Belluno</t>
+  </si>
+  <si>
+    <t>Padova</t>
+  </si>
+  <si>
+    <t>22 </t>
+  </si>
+  <si>
+    <t>Rovigo</t>
+  </si>
+  <si>
+    <t>Treviso</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Internationalisation</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Diversification</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>L' Aquila</t>
+  </si>
+  <si>
+    <t>Reggio di Calabria</t>
+  </si>
+  <si>
+    <t>Vibo Valentia</t>
+  </si>
+  <si>
+    <t>Forlì-Cesena</t>
+  </si>
+  <si>
+    <t>Reggio nell' Emilia</t>
+  </si>
+  <si>
+    <t>La Spezia</t>
+  </si>
+  <si>
+    <t>Monza e della Brianza</t>
+  </si>
+  <si>
+    <t>Ascoli Piceno</t>
+  </si>
+  <si>
+    <t>Pesaro e Urbino</t>
+  </si>
+  <si>
+    <t>Verbano-Cusio-Ossola</t>
+  </si>
+  <si>
+    <t>Barletta-Andria-Trani</t>
+  </si>
+  <si>
+    <t>Massa Carrara</t>
+  </si>
+  <si>
+    <t>Bolzano/Bozen</t>
+  </si>
+  <si>
+    <t>Valle d'Aosta/Vallée d'Aoste</t>
   </si>
 </sst>
 </file>
@@ -1017,64 +1017,64 @@
   <dimension ref="A1:P531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B536" sqref="B536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>2018</v>
@@ -1121,12 +1121,12 @@
         <v>4</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5">
         <v>2019</v>
@@ -1173,12 +1173,12 @@
         <v>0</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
         <v>2020</v>
@@ -1225,12 +1225,12 @@
         <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5">
         <v>2021</v>
@@ -1277,12 +1277,12 @@
         <v>3</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5">
         <v>2022</v>
@@ -1329,12 +1329,12 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B7" s="5">
         <v>2018</v>
@@ -1381,12 +1381,12 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B8" s="5">
         <v>2019</v>
@@ -1433,12 +1433,12 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B9" s="5">
         <v>2020</v>
@@ -1485,12 +1485,12 @@
         <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B10" s="5">
         <v>2021</v>
@@ -1537,12 +1537,12 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="B11" s="5">
         <v>2022</v>
@@ -1589,12 +1589,12 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5">
         <v>2018</v>
@@ -1641,12 +1641,12 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5">
         <v>2019</v>
@@ -1693,12 +1693,12 @@
         <v>24</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5">
         <v>2020</v>
@@ -1745,12 +1745,12 @@
         <v>8</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5">
         <v>2021</v>
@@ -1797,12 +1797,12 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5">
         <v>2022</v>
@@ -1849,12 +1849,12 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5">
         <v>2018</v>
@@ -1901,12 +1901,12 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5">
         <v>2019</v>
@@ -1953,12 +1953,12 @@
         <v>2</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5">
         <v>2020</v>
@@ -2005,12 +2005,12 @@
         <v>3</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5">
         <v>2021</v>
@@ -2057,12 +2057,12 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>2022</v>
@@ -2109,12 +2109,12 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>2018</v>
@@ -2161,12 +2161,12 @@
         <v>0</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5">
         <v>2019</v>
@@ -2213,12 +2213,12 @@
         <v>0</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5">
         <v>2020</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N24" s="5">
         <v>0</v>
@@ -2265,12 +2265,12 @@
         <v>0</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5">
         <v>2021</v>
@@ -2317,12 +2317,12 @@
         <v>0</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B26" s="5">
         <v>2022</v>
@@ -2369,12 +2369,12 @@
         <v>0</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B27" s="5">
         <v>2018</v>
@@ -2421,12 +2421,12 @@
         <v>0</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B28" s="5">
         <v>2019</v>
@@ -2473,12 +2473,12 @@
         <v>0</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5">
         <v>2020</v>
@@ -2525,12 +2525,12 @@
         <v>0</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B30" s="5">
         <v>2021</v>
@@ -2577,12 +2577,12 @@
         <v>0</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B31" s="5">
         <v>2022</v>
@@ -2629,12 +2629,12 @@
         <v>0</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B32" s="5">
         <v>2018</v>
@@ -2681,12 +2681,12 @@
         <v>0</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B33" s="5">
         <v>2019</v>
@@ -2733,12 +2733,12 @@
         <v>0</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B34" s="5">
         <v>2020</v>
@@ -2785,12 +2785,12 @@
         <v>3</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B35" s="5">
         <v>2021</v>
@@ -2837,12 +2837,12 @@
         <v>0</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B36" s="5">
         <v>2022</v>
@@ -2889,12 +2889,12 @@
         <v>0</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B37" s="5">
         <v>2018</v>
@@ -2941,12 +2941,12 @@
         <v>0</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B38" s="5">
         <v>2019</v>
@@ -2993,12 +2993,12 @@
         <v>0</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B39" s="5">
         <v>2020</v>
@@ -3045,12 +3045,12 @@
         <v>0</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B40" s="5">
         <v>2021</v>
@@ -3097,12 +3097,12 @@
         <v>4</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B41" s="5">
         <v>2022</v>
@@ -3149,12 +3149,12 @@
         <v>0</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B42" s="5">
         <v>2018</v>
@@ -3186,13 +3186,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N42" s="5">
         <v>0</v>
@@ -3201,12 +3201,12 @@
         <v>0</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B43" s="5">
         <v>2019</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N43" s="5">
         <v>0</v>
@@ -3253,12 +3253,12 @@
         <v>0</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B44" s="5">
         <v>2020</v>
@@ -3305,12 +3305,12 @@
         <v>0</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B45" s="5">
         <v>2021</v>
@@ -3357,12 +3357,12 @@
         <v>2</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B46" s="5">
         <v>2022</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N46" s="5">
         <v>0</v>
@@ -3409,12 +3409,12 @@
         <v>0</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B47" s="5">
         <v>2018</v>
@@ -3461,12 +3461,12 @@
         <v>0</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B48" s="5">
         <v>2019</v>
@@ -3513,12 +3513,12 @@
         <v>0</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B49" s="5">
         <v>2020</v>
@@ -3565,12 +3565,12 @@
         <v>2</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B50" s="5">
         <v>2021</v>
@@ -3617,12 +3617,12 @@
         <v>0</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="B51" s="5">
         <v>2022</v>
@@ -3669,12 +3669,12 @@
         <v>0</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B52" s="5">
         <v>2018</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N52" s="5">
         <v>0</v>
@@ -3721,12 +3721,12 @@
         <v>0</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B53" s="5">
         <v>2019</v>
@@ -3758,13 +3758,13 @@
         <v>0</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N53" s="5">
         <v>0</v>
@@ -3773,12 +3773,12 @@
         <v>0</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B54" s="5">
         <v>2020</v>
@@ -3825,12 +3825,12 @@
         <v>0</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B55" s="5">
         <v>2021</v>
@@ -3862,13 +3862,13 @@
         <v>0</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N55" s="5">
         <v>0</v>
@@ -3877,12 +3877,12 @@
         <v>0</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B56" s="5">
         <v>2022</v>
@@ -3929,12 +3929,12 @@
         <v>0</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" s="5">
         <v>2018</v>
@@ -3981,12 +3981,12 @@
         <v>0</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B58" s="5">
         <v>2019</v>
@@ -4033,12 +4033,12 @@
         <v>0</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B59" s="5">
         <v>2020</v>
@@ -4085,12 +4085,12 @@
         <v>0</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B60" s="5">
         <v>2021</v>
@@ -4137,12 +4137,12 @@
         <v>0</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B61" s="5">
         <v>2022</v>
@@ -4189,12 +4189,12 @@
         <v>0</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B62" s="5">
         <v>2018</v>
@@ -4241,12 +4241,12 @@
         <v>6</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B63" s="5">
         <v>2019</v>
@@ -4293,12 +4293,12 @@
         <v>0</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B64" s="5">
         <v>2020</v>
@@ -4345,12 +4345,12 @@
         <v>2</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B65" s="5">
         <v>2021</v>
@@ -4397,12 +4397,12 @@
         <v>0</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B66" s="5">
         <v>2022</v>
@@ -4449,12 +4449,12 @@
         <v>0</v>
       </c>
       <c r="P66" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B67" s="5">
         <v>2018</v>
@@ -4501,12 +4501,12 @@
         <v>0</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B68" s="5">
         <v>2019</v>
@@ -4553,12 +4553,12 @@
         <v>0</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B69" s="5">
         <v>2020</v>
@@ -4605,12 +4605,12 @@
         <v>0</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B70" s="5">
         <v>2021</v>
@@ -4657,12 +4657,12 @@
         <v>0</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B71" s="5">
         <v>2022</v>
@@ -4709,12 +4709,12 @@
         <v>0</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B72" s="5">
         <v>2018</v>
@@ -4761,12 +4761,12 @@
         <v>0</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B73" s="5">
         <v>2019</v>
@@ -4813,12 +4813,12 @@
         <v>14</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B74" s="5">
         <v>2020</v>
@@ -4865,12 +4865,12 @@
         <v>1</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B75" s="5">
         <v>2021</v>
@@ -4917,12 +4917,12 @@
         <v>0</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B76" s="5">
         <v>2022</v>
@@ -4969,12 +4969,12 @@
         <v>0</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B77" s="5">
         <v>2018</v>
@@ -5021,12 +5021,12 @@
         <v>2</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B78" s="5">
         <v>2019</v>
@@ -5073,12 +5073,12 @@
         <v>0</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B79" s="5">
         <v>2020</v>
@@ -5125,12 +5125,12 @@
         <v>0</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B80" s="5">
         <v>2021</v>
@@ -5177,12 +5177,12 @@
         <v>2</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B81" s="5">
         <v>2022</v>
@@ -5229,12 +5229,12 @@
         <v>0</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B82" s="5">
         <v>2018</v>
@@ -5281,12 +5281,12 @@
         <v>7</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B83" s="5">
         <v>2019</v>
@@ -5333,12 +5333,12 @@
         <v>13</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B84" s="5">
         <v>2020</v>
@@ -5385,12 +5385,12 @@
         <v>18</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B85" s="5">
         <v>2021</v>
@@ -5437,12 +5437,12 @@
         <v>17</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B86" s="5">
         <v>2022</v>
@@ -5489,12 +5489,12 @@
         <v>1</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B87" s="5">
         <v>2018</v>
@@ -5541,12 +5541,12 @@
         <v>0</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B88" s="5">
         <v>2019</v>
@@ -5593,12 +5593,12 @@
         <v>10</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B89" s="5">
         <v>2020</v>
@@ -5645,12 +5645,12 @@
         <v>5</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B90" s="5">
         <v>2021</v>
@@ -5697,12 +5697,12 @@
         <v>0</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B91" s="5">
         <v>2022</v>
@@ -5749,12 +5749,12 @@
         <v>0</v>
       </c>
       <c r="P91" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="B92" s="5">
         <v>2018</v>
@@ -5801,12 +5801,12 @@
         <v>0</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="B93" s="5">
         <v>2019</v>
@@ -5853,12 +5853,12 @@
         <v>0</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="B94" s="5">
         <v>2020</v>
@@ -5905,12 +5905,12 @@
         <v>0</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="B95" s="5">
         <v>2021</v>
@@ -5957,12 +5957,12 @@
         <v>0</v>
       </c>
       <c r="P95" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="B96" s="5">
         <v>2022</v>
@@ -6009,12 +6009,12 @@
         <v>0</v>
       </c>
       <c r="P96" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B97" s="5">
         <v>2018</v>
@@ -6061,12 +6061,12 @@
         <v>7</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B98" s="5">
         <v>2019</v>
@@ -6113,12 +6113,12 @@
         <v>0</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B99" s="5">
         <v>2020</v>
@@ -6165,12 +6165,12 @@
         <v>9</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B100" s="5">
         <v>2021</v>
@@ -6217,12 +6217,12 @@
         <v>0</v>
       </c>
       <c r="P100" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B101" s="5">
         <v>2022</v>
@@ -6269,12 +6269,12 @@
         <v>0</v>
       </c>
       <c r="P101" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B102" s="5">
         <v>2018</v>
@@ -6321,12 +6321,12 @@
         <v>14</v>
       </c>
       <c r="P102" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B103" s="5">
         <v>2019</v>
@@ -6373,12 +6373,12 @@
         <v>0</v>
       </c>
       <c r="P103" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B104" s="5">
         <v>2020</v>
@@ -6425,12 +6425,12 @@
         <v>8</v>
       </c>
       <c r="P104" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B105" s="5">
         <v>2021</v>
@@ -6477,12 +6477,12 @@
         <v>4</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B106" s="5">
         <v>2022</v>
@@ -6529,12 +6529,12 @@
         <v>2</v>
       </c>
       <c r="P106" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B107" s="5">
         <v>2018</v>
@@ -6581,12 +6581,12 @@
         <v>0</v>
       </c>
       <c r="P107" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B108" s="5">
         <v>2019</v>
@@ -6633,12 +6633,12 @@
         <v>0</v>
       </c>
       <c r="P108" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B109" s="5">
         <v>2020</v>
@@ -6685,12 +6685,12 @@
         <v>0</v>
       </c>
       <c r="P109" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B110" s="5">
         <v>2021</v>
@@ -6737,12 +6737,12 @@
         <v>2</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B111" s="5">
         <v>2022</v>
@@ -6789,12 +6789,12 @@
         <v>0</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B112" s="5">
         <v>2018</v>
@@ -6841,12 +6841,12 @@
         <v>0</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B113" s="5">
         <v>2019</v>
@@ -6893,12 +6893,12 @@
         <v>3</v>
       </c>
       <c r="P113" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B114" s="5">
         <v>2020</v>
@@ -6945,12 +6945,12 @@
         <v>4</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B115" s="5">
         <v>2021</v>
@@ -6997,12 +6997,12 @@
         <v>2</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B116" s="5">
         <v>2022</v>
@@ -7049,12 +7049,12 @@
         <v>0</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="B117" s="5">
         <v>2018</v>
@@ -7101,12 +7101,12 @@
         <v>0</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="B118" s="5">
         <v>2019</v>
@@ -7153,12 +7153,12 @@
         <v>0</v>
       </c>
       <c r="P118" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="B119" s="5">
         <v>2020</v>
@@ -7205,12 +7205,12 @@
         <v>23</v>
       </c>
       <c r="P119" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="B120" s="5">
         <v>2021</v>
@@ -7257,12 +7257,12 @@
         <v>0</v>
       </c>
       <c r="P120" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="B121" s="5">
         <v>2022</v>
@@ -7309,12 +7309,12 @@
         <v>0</v>
       </c>
       <c r="P121" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B122" s="5">
         <v>2018</v>
@@ -7361,12 +7361,12 @@
         <v>2</v>
       </c>
       <c r="P122" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B123" s="5">
         <v>2019</v>
@@ -7413,12 +7413,12 @@
         <v>0</v>
       </c>
       <c r="P123" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B124" s="5">
         <v>2020</v>
@@ -7465,12 +7465,12 @@
         <v>0</v>
       </c>
       <c r="P124" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B125" s="5">
         <v>2021</v>
@@ -7517,12 +7517,12 @@
         <v>0</v>
       </c>
       <c r="P125" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B126" s="5">
         <v>2022</v>
@@ -7569,12 +7569,12 @@
         <v>0</v>
       </c>
       <c r="P126" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B127" s="5">
         <v>2018</v>
@@ -7621,12 +7621,12 @@
         <v>0</v>
       </c>
       <c r="P127" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B128" s="5">
         <v>2019</v>
@@ -7673,12 +7673,12 @@
         <v>0</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B129" s="5">
         <v>2020</v>
@@ -7725,12 +7725,12 @@
         <v>0</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B130" s="5">
         <v>2021</v>
@@ -7777,12 +7777,12 @@
         <v>0</v>
       </c>
       <c r="P130" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B131" s="5">
         <v>2022</v>
@@ -7829,12 +7829,12 @@
         <v>0</v>
       </c>
       <c r="P131" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B132" s="5">
         <v>2018</v>
@@ -7881,12 +7881,12 @@
         <v>0</v>
       </c>
       <c r="P132" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B133" s="5">
         <v>2019</v>
@@ -7933,12 +7933,12 @@
         <v>2</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B134" s="5">
         <v>2020</v>
@@ -7985,12 +7985,12 @@
         <v>0</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B135" s="5">
         <v>2021</v>
@@ -8037,12 +8037,12 @@
         <v>0</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B136" s="5">
         <v>2022</v>
@@ -8089,12 +8089,12 @@
         <v>0</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B137" s="5">
         <v>2018</v>
@@ -8141,12 +8141,12 @@
         <v>0</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B138" s="5">
         <v>2019</v>
@@ -8193,12 +8193,12 @@
         <v>0</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B139" s="5">
         <v>2020</v>
@@ -8245,12 +8245,12 @@
         <v>2</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B140" s="5">
         <v>2021</v>
@@ -8297,12 +8297,12 @@
         <v>0</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B141" s="5">
         <v>2022</v>
@@ -8349,12 +8349,12 @@
         <v>0</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B142" s="5">
         <v>2018</v>
@@ -8401,12 +8401,12 @@
         <v>0</v>
       </c>
       <c r="P142" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B143" s="5">
         <v>2019</v>
@@ -8453,12 +8453,12 @@
         <v>4</v>
       </c>
       <c r="P143" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B144" s="5">
         <v>2020</v>
@@ -8505,12 +8505,12 @@
         <v>2</v>
       </c>
       <c r="P144" s="5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B145" s="5">
         <v>2021</v>
@@ -8557,12 +8557,12 @@
         <v>6</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B146" s="5">
         <v>2022</v>
@@ -8609,12 +8609,12 @@
         <v>0</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B147" s="5">
         <v>2018</v>
@@ -8661,12 +8661,12 @@
         <v>11</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B148" s="5">
         <v>2019</v>
@@ -8713,12 +8713,12 @@
         <v>0</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B149" s="5">
         <v>2020</v>
@@ -8765,12 +8765,12 @@
         <v>0</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B150" s="5">
         <v>2021</v>
@@ -8817,12 +8817,12 @@
         <v>0</v>
       </c>
       <c r="P150" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B151" s="5">
         <v>2022</v>
@@ -8869,12 +8869,12 @@
         <v>0</v>
       </c>
       <c r="P151" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B152" s="5">
         <v>2018</v>
@@ -8921,12 +8921,12 @@
         <v>3</v>
       </c>
       <c r="P152" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B153" s="5">
         <v>2019</v>
@@ -8973,12 +8973,12 @@
         <v>0</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B154" s="5">
         <v>2020</v>
@@ -9025,12 +9025,12 @@
         <v>0</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B155" s="5">
         <v>2021</v>
@@ -9077,12 +9077,12 @@
         <v>2</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B156" s="5">
         <v>2022</v>
@@ -9129,12 +9129,12 @@
         <v>0</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B157" s="5">
         <v>2018</v>
@@ -9181,12 +9181,12 @@
         <v>0</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B158" s="5">
         <v>2019</v>
@@ -9233,12 +9233,12 @@
         <v>0</v>
       </c>
       <c r="P158" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B159" s="5">
         <v>2020</v>
@@ -9285,12 +9285,12 @@
         <v>0</v>
       </c>
       <c r="P159" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B160" s="5">
         <v>2021</v>
@@ -9337,12 +9337,12 @@
         <v>0</v>
       </c>
       <c r="P160" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B161" s="5">
         <v>2022</v>
@@ -9374,13 +9374,13 @@
         <v>0</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M161" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N161" s="5">
         <v>0</v>
@@ -9389,12 +9389,12 @@
         <v>0</v>
       </c>
       <c r="P161" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B162" s="5">
         <v>2018</v>
@@ -9441,12 +9441,12 @@
         <v>23</v>
       </c>
       <c r="P162" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B163" s="5">
         <v>2019</v>
@@ -9493,12 +9493,12 @@
         <v>44</v>
       </c>
       <c r="P163" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B164" s="5">
         <v>2020</v>
@@ -9545,12 +9545,12 @@
         <v>18</v>
       </c>
       <c r="P164" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B165" s="5">
         <v>2021</v>
@@ -9597,12 +9597,12 @@
         <v>17</v>
       </c>
       <c r="P165" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B166" s="5">
         <v>2022</v>
@@ -9649,12 +9649,12 @@
         <v>0</v>
       </c>
       <c r="P166" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B167" s="5">
         <v>2018</v>
@@ -9701,12 +9701,12 @@
         <v>0</v>
       </c>
       <c r="P167" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B168" s="5">
         <v>2019</v>
@@ -9753,12 +9753,12 @@
         <v>0</v>
       </c>
       <c r="P168" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B169" s="5">
         <v>2020</v>
@@ -9805,12 +9805,12 @@
         <v>0</v>
       </c>
       <c r="P169" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B170" s="5">
         <v>2021</v>
@@ -9857,12 +9857,12 @@
         <v>0</v>
       </c>
       <c r="P170" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B171" s="5">
         <v>2022</v>
@@ -9909,12 +9909,12 @@
         <v>0</v>
       </c>
       <c r="P171" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B172" s="5">
         <v>2018</v>
@@ -9961,12 +9961,12 @@
         <v>0</v>
       </c>
       <c r="P172" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B173" s="5">
         <v>2019</v>
@@ -10013,12 +10013,12 @@
         <v>3</v>
       </c>
       <c r="P173" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B174" s="5">
         <v>2020</v>
@@ -10065,12 +10065,12 @@
         <v>5</v>
       </c>
       <c r="P174" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B175" s="5">
         <v>2021</v>
@@ -10117,12 +10117,12 @@
         <v>0</v>
       </c>
       <c r="P175" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B176" s="5">
         <v>2022</v>
@@ -10169,12 +10169,12 @@
         <v>0</v>
       </c>
       <c r="P176" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B177" s="5">
         <v>2018</v>
@@ -10221,12 +10221,12 @@
         <v>0</v>
       </c>
       <c r="P177" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B178" s="5">
         <v>2019</v>
@@ -10273,12 +10273,12 @@
         <v>0</v>
       </c>
       <c r="P178" s="5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B179" s="5">
         <v>2020</v>
@@ -10325,12 +10325,12 @@
         <v>0</v>
       </c>
       <c r="P179" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B180" s="5">
         <v>2021</v>
@@ -10377,12 +10377,12 @@
         <v>0</v>
       </c>
       <c r="P180" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B181" s="5">
         <v>2022</v>
@@ -10429,12 +10429,12 @@
         <v>0</v>
       </c>
       <c r="P181" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B182" s="5">
         <v>2018</v>
@@ -10481,12 +10481,12 @@
         <v>0</v>
       </c>
       <c r="P182" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B183" s="5">
         <v>2019</v>
@@ -10533,12 +10533,12 @@
         <v>0</v>
       </c>
       <c r="P183" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B184" s="5">
         <v>2020</v>
@@ -10585,12 +10585,12 @@
         <v>0</v>
       </c>
       <c r="P184" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B185" s="5">
         <v>2021</v>
@@ -10637,12 +10637,12 @@
         <v>2</v>
       </c>
       <c r="P185" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B186" s="5">
         <v>2022</v>
@@ -10689,12 +10689,12 @@
         <v>0</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B187" s="5">
         <v>2018</v>
@@ -10741,12 +10741,12 @@
         <v>0</v>
       </c>
       <c r="P187" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B188" s="5">
         <v>2019</v>
@@ -10793,12 +10793,12 @@
         <v>0</v>
       </c>
       <c r="P188" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B189" s="5">
         <v>2020</v>
@@ -10845,12 +10845,12 @@
         <v>0</v>
       </c>
       <c r="P189" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B190" s="5">
         <v>2021</v>
@@ -10897,12 +10897,12 @@
         <v>1</v>
       </c>
       <c r="P190" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B191" s="5">
         <v>2022</v>
@@ -10949,12 +10949,12 @@
         <v>0</v>
       </c>
       <c r="P191" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B192" s="5">
         <v>2018</v>
@@ -11001,12 +11001,12 @@
         <v>13</v>
       </c>
       <c r="P192" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B193" s="5">
         <v>2019</v>
@@ -11053,12 +11053,12 @@
         <v>35</v>
       </c>
       <c r="P193" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B194" s="5">
         <v>2020</v>
@@ -11105,12 +11105,12 @@
         <v>3</v>
       </c>
       <c r="P194" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B195" s="5">
         <v>2021</v>
@@ -11157,12 +11157,12 @@
         <v>8</v>
       </c>
       <c r="P195" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B196" s="5">
         <v>2022</v>
@@ -11209,12 +11209,12 @@
         <v>2</v>
       </c>
       <c r="P196" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B197" s="5">
         <v>2018</v>
@@ -11261,12 +11261,12 @@
         <v>11</v>
       </c>
       <c r="P197" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B198" s="5">
         <v>2019</v>
@@ -11313,12 +11313,12 @@
         <v>8</v>
       </c>
       <c r="P198" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B199" s="5">
         <v>2020</v>
@@ -11365,12 +11365,12 @@
         <v>9</v>
       </c>
       <c r="P199" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B200" s="5">
         <v>2021</v>
@@ -11417,12 +11417,12 @@
         <v>6</v>
       </c>
       <c r="P200" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B201" s="5">
         <v>2022</v>
@@ -11469,12 +11469,12 @@
         <v>0</v>
       </c>
       <c r="P201" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B202" s="5">
         <v>2018</v>
@@ -11521,12 +11521,12 @@
         <v>0</v>
       </c>
       <c r="P202" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B203" s="5">
         <v>2019</v>
@@ -11573,12 +11573,12 @@
         <v>0</v>
       </c>
       <c r="P203" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B204" s="5">
         <v>2020</v>
@@ -11625,12 +11625,12 @@
         <v>3</v>
       </c>
       <c r="P204" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="205" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B205" s="5">
         <v>2021</v>
@@ -11677,12 +11677,12 @@
         <v>1</v>
       </c>
       <c r="P205" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B206" s="5">
         <v>2022</v>
@@ -11729,12 +11729,12 @@
         <v>0</v>
       </c>
       <c r="P206" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B207" s="5">
         <v>2018</v>
@@ -11781,12 +11781,12 @@
         <v>0</v>
       </c>
       <c r="P207" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B208" s="5">
         <v>2019</v>
@@ -11833,12 +11833,12 @@
         <v>0</v>
       </c>
       <c r="P208" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B209" s="5">
         <v>2020</v>
@@ -11885,12 +11885,12 @@
         <v>0</v>
       </c>
       <c r="P209" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B210" s="5">
         <v>2021</v>
@@ -11937,12 +11937,12 @@
         <v>0</v>
       </c>
       <c r="P210" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B211" s="5">
         <v>2022</v>
@@ -11989,12 +11989,12 @@
         <v>0</v>
       </c>
       <c r="P211" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B212" s="5">
         <v>2018</v>
@@ -12041,12 +12041,12 @@
         <v>0</v>
       </c>
       <c r="P212" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B213" s="5">
         <v>2019</v>
@@ -12093,12 +12093,12 @@
         <v>0</v>
       </c>
       <c r="P213" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B214" s="5">
         <v>2020</v>
@@ -12145,12 +12145,12 @@
         <v>13</v>
       </c>
       <c r="P214" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B215" s="5">
         <v>2021</v>
@@ -12197,12 +12197,12 @@
         <v>0</v>
       </c>
       <c r="P215" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B216" s="5">
         <v>2022</v>
@@ -12249,12 +12249,12 @@
         <v>0</v>
       </c>
       <c r="P216" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B217" s="5">
         <v>2018</v>
@@ -12301,12 +12301,12 @@
         <v>0</v>
       </c>
       <c r="P217" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B218" s="5">
         <v>2019</v>
@@ -12353,12 +12353,12 @@
         <v>3</v>
       </c>
       <c r="P218" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B219" s="5">
         <v>2020</v>
@@ -12405,12 +12405,12 @@
         <v>0</v>
       </c>
       <c r="P219" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B220" s="5">
         <v>2021</v>
@@ -12457,12 +12457,12 @@
         <v>2</v>
       </c>
       <c r="P220" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B221" s="5">
         <v>2022</v>
@@ -12509,12 +12509,12 @@
         <v>0</v>
       </c>
       <c r="P221" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B222" s="5">
         <v>2018</v>
@@ -12561,12 +12561,12 @@
         <v>0</v>
       </c>
       <c r="P222" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B223" s="5">
         <v>2019</v>
@@ -12613,12 +12613,12 @@
         <v>0</v>
       </c>
       <c r="P223" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B224" s="5">
         <v>2020</v>
@@ -12665,12 +12665,12 @@
         <v>12</v>
       </c>
       <c r="P224" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="225" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B225" s="5">
         <v>2021</v>
@@ -12717,12 +12717,12 @@
         <v>0</v>
       </c>
       <c r="P225" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="226" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B226" s="5">
         <v>2022</v>
@@ -12769,12 +12769,12 @@
         <v>0</v>
       </c>
       <c r="P226" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B227" s="5">
         <v>2018</v>
@@ -12821,12 +12821,12 @@
         <v>35</v>
       </c>
       <c r="P227" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="228" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B228" s="5">
         <v>2019</v>
@@ -12873,12 +12873,12 @@
         <v>75</v>
       </c>
       <c r="P228" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="229" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B229" s="5">
         <v>2020</v>
@@ -12925,12 +12925,12 @@
         <v>71</v>
       </c>
       <c r="P229" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B230" s="5">
         <v>2021</v>
@@ -12977,12 +12977,12 @@
         <v>25</v>
       </c>
       <c r="P230" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B231" s="5">
         <v>2022</v>
@@ -13029,12 +13029,12 @@
         <v>0</v>
       </c>
       <c r="P231" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B232" s="5">
         <v>2018</v>
@@ -13081,12 +13081,12 @@
         <v>2</v>
       </c>
       <c r="P232" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B233" s="5">
         <v>2019</v>
@@ -13133,12 +13133,12 @@
         <v>0</v>
       </c>
       <c r="P233" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B234" s="5">
         <v>2020</v>
@@ -13185,12 +13185,12 @@
         <v>7</v>
       </c>
       <c r="P234" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B235" s="5">
         <v>2021</v>
@@ -13237,12 +13237,12 @@
         <v>0</v>
       </c>
       <c r="P235" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B236" s="5">
         <v>2022</v>
@@ -13289,12 +13289,12 @@
         <v>0</v>
       </c>
       <c r="P236" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B237" s="5">
         <v>2018</v>
@@ -13341,12 +13341,12 @@
         <v>0</v>
       </c>
       <c r="P237" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B238" s="5">
         <v>2019</v>
@@ -13393,12 +13393,12 @@
         <v>0</v>
       </c>
       <c r="P238" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B239" s="5">
         <v>2020</v>
@@ -13445,12 +13445,12 @@
         <v>0</v>
       </c>
       <c r="P239" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B240" s="5">
         <v>2021</v>
@@ -13497,12 +13497,12 @@
         <v>0</v>
       </c>
       <c r="P240" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B241" s="5">
         <v>2022</v>
@@ -13549,12 +13549,12 @@
         <v>0</v>
       </c>
       <c r="P241" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B242" s="5">
         <v>2018</v>
@@ -13601,12 +13601,12 @@
         <v>0</v>
       </c>
       <c r="P242" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B243" s="5">
         <v>2019</v>
@@ -13653,12 +13653,12 @@
         <v>3</v>
       </c>
       <c r="P243" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B244" s="5">
         <v>2020</v>
@@ -13705,12 +13705,12 @@
         <v>0</v>
       </c>
       <c r="P244" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B245" s="5">
         <v>2021</v>
@@ -13757,12 +13757,12 @@
         <v>0</v>
       </c>
       <c r="P245" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B246" s="5">
         <v>2022</v>
@@ -13794,13 +13794,13 @@
         <v>0</v>
       </c>
       <c r="K246" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L246" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M246" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N246" s="5">
         <v>0</v>
@@ -13809,12 +13809,12 @@
         <v>0</v>
       </c>
       <c r="P246" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B247" s="5">
         <v>2018</v>
@@ -13861,12 +13861,12 @@
         <v>0</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B248" s="5">
         <v>2019</v>
@@ -13913,12 +13913,12 @@
         <v>13</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B249" s="5">
         <v>2020</v>
@@ -13965,12 +13965,12 @@
         <v>0</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B250" s="5">
         <v>2021</v>
@@ -14017,12 +14017,12 @@
         <v>0</v>
       </c>
       <c r="P250" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B251" s="5">
         <v>2022</v>
@@ -14069,12 +14069,12 @@
         <v>0</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B252" s="5">
         <v>2018</v>
@@ -14121,12 +14121,12 @@
         <v>0</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B253" s="5">
         <v>2019</v>
@@ -14173,12 +14173,12 @@
         <v>0</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B254" s="5">
         <v>2020</v>
@@ -14225,12 +14225,12 @@
         <v>0</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B255" s="5">
         <v>2021</v>
@@ -14277,12 +14277,12 @@
         <v>0</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="256" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B256" s="5">
         <v>2022</v>
@@ -14329,12 +14329,12 @@
         <v>0</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="B257" s="5">
         <v>2018</v>
@@ -14381,12 +14381,12 @@
         <v>0</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="B258" s="5">
         <v>2019</v>
@@ -14433,12 +14433,12 @@
         <v>0</v>
       </c>
       <c r="P258" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="B259" s="5">
         <v>2020</v>
@@ -14485,12 +14485,12 @@
         <v>0</v>
       </c>
       <c r="P259" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="B260" s="5">
         <v>2021</v>
@@ -14537,12 +14537,12 @@
         <v>2</v>
       </c>
       <c r="P260" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="B261" s="5">
         <v>2022</v>
@@ -14589,12 +14589,12 @@
         <v>0</v>
       </c>
       <c r="P261" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B262" s="5">
         <v>2018</v>
@@ -14641,12 +14641,12 @@
         <v>0</v>
       </c>
       <c r="P262" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B263" s="5">
         <v>2019</v>
@@ -14693,12 +14693,12 @@
         <v>0</v>
       </c>
       <c r="P263" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B264" s="5">
         <v>2020</v>
@@ -14745,12 +14745,12 @@
         <v>0</v>
       </c>
       <c r="P264" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B265" s="5">
         <v>2021</v>
@@ -14797,12 +14797,12 @@
         <v>0</v>
       </c>
       <c r="P265" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B266" s="5">
         <v>2022</v>
@@ -14849,12 +14849,12 @@
         <v>0</v>
       </c>
       <c r="P266" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B267" s="5">
         <v>2018</v>
@@ -14901,12 +14901,12 @@
         <v>0</v>
       </c>
       <c r="P267" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B268" s="5">
         <v>2019</v>
@@ -14953,12 +14953,12 @@
         <v>0</v>
       </c>
       <c r="P268" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B269" s="5">
         <v>2020</v>
@@ -15005,12 +15005,12 @@
         <v>0</v>
       </c>
       <c r="P269" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="270" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B270" s="5">
         <v>2021</v>
@@ -15057,12 +15057,12 @@
         <v>0</v>
       </c>
       <c r="P270" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B271" s="5">
         <v>2022</v>
@@ -15109,12 +15109,12 @@
         <v>0</v>
       </c>
       <c r="P271" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="B272" s="5">
         <v>2018</v>
@@ -15161,12 +15161,12 @@
         <v>29</v>
       </c>
       <c r="P272" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="B273" s="5">
         <v>2019</v>
@@ -15213,12 +15213,12 @@
         <v>0</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="B274" s="5">
         <v>2020</v>
@@ -15265,12 +15265,12 @@
         <v>0</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="B275" s="5">
         <v>2021</v>
@@ -15317,12 +15317,12 @@
         <v>0</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="B276" s="5">
         <v>2022</v>
@@ -15369,12 +15369,12 @@
         <v>0</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B277" s="5">
         <v>2018</v>
@@ -15421,12 +15421,12 @@
         <v>3</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B278" s="5">
         <v>2019</v>
@@ -15473,12 +15473,12 @@
         <v>0</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B279" s="5">
         <v>2020</v>
@@ -15525,12 +15525,12 @@
         <v>0</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B280" s="5">
         <v>2021</v>
@@ -15562,13 +15562,13 @@
         <v>0</v>
       </c>
       <c r="K280" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N280" s="5">
         <v>0</v>
@@ -15577,12 +15577,12 @@
         <v>0</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B281" s="5">
         <v>2022</v>
@@ -15629,12 +15629,12 @@
         <v>0</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B282" s="5">
         <v>2018</v>
@@ -15681,12 +15681,12 @@
         <v>0</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="283" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B283" s="5">
         <v>2019</v>
@@ -15733,12 +15733,12 @@
         <v>0</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B284" s="5">
         <v>2020</v>
@@ -15785,12 +15785,12 @@
         <v>0</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B285" s="5">
         <v>2021</v>
@@ -15837,12 +15837,12 @@
         <v>0</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B286" s="5">
         <v>2022</v>
@@ -15889,12 +15889,12 @@
         <v>0</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B287" s="5">
         <v>2018</v>
@@ -15941,12 +15941,12 @@
         <v>0</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B288" s="5">
         <v>2019</v>
@@ -15993,12 +15993,12 @@
         <v>0</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B289" s="5">
         <v>2020</v>
@@ -16045,12 +16045,12 @@
         <v>6</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B290" s="5">
         <v>2021</v>
@@ -16097,12 +16097,12 @@
         <v>0</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B291" s="5">
         <v>2022</v>
@@ -16149,12 +16149,12 @@
         <v>0</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B292" s="5">
         <v>2018</v>
@@ -16201,12 +16201,12 @@
         <v>0</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B293" s="5">
         <v>2019</v>
@@ -16253,12 +16253,12 @@
         <v>0</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B294" s="5">
         <v>2020</v>
@@ -16305,12 +16305,12 @@
         <v>0</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B295" s="5">
         <v>2021</v>
@@ -16357,12 +16357,12 @@
         <v>0</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B296" s="5">
         <v>2022</v>
@@ -16409,12 +16409,12 @@
         <v>0</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B297" s="5">
         <v>2018</v>
@@ -16461,12 +16461,12 @@
         <v>0</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B298" s="5">
         <v>2019</v>
@@ -16513,12 +16513,12 @@
         <v>2</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B299" s="5">
         <v>2020</v>
@@ -16565,12 +16565,12 @@
         <v>0</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B300" s="5">
         <v>2021</v>
@@ -16617,12 +16617,12 @@
         <v>0</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B301" s="5">
         <v>2022</v>
@@ -16669,12 +16669,12 @@
         <v>0</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B302" s="5">
         <v>2018</v>
@@ -16721,12 +16721,12 @@
         <v>0</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="303" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B303" s="5">
         <v>2019</v>
@@ -16773,12 +16773,12 @@
         <v>0</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="304" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B304" s="5">
         <v>2020</v>
@@ -16825,12 +16825,12 @@
         <v>0</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B305" s="5">
         <v>2021</v>
@@ -16877,12 +16877,12 @@
         <v>0</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="306" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B306" s="5">
         <v>2022</v>
@@ -16929,12 +16929,12 @@
         <v>0</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B307" s="5">
         <v>2018</v>
@@ -16981,12 +16981,12 @@
         <v>10</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B308" s="5">
         <v>2019</v>
@@ -17033,12 +17033,12 @@
         <v>18</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="309" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B309" s="5">
         <v>2020</v>
@@ -17085,12 +17085,12 @@
         <v>51</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="310" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B310" s="5">
         <v>2021</v>
@@ -17137,12 +17137,12 @@
         <v>18</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="311" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B311" s="5">
         <v>2022</v>
@@ -17189,12 +17189,12 @@
         <v>0</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B312" s="5">
         <v>2018</v>
@@ -17241,12 +17241,12 @@
         <v>5</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="313" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B313" s="5">
         <v>2019</v>
@@ -17293,12 +17293,12 @@
         <v>17</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="314" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B314" s="5">
         <v>2020</v>
@@ -17345,12 +17345,12 @@
         <v>15</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="315" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B315" s="5">
         <v>2021</v>
@@ -17397,12 +17397,12 @@
         <v>10</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="316" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B316" s="5">
         <v>2022</v>
@@ -17449,12 +17449,12 @@
         <v>0</v>
       </c>
       <c r="P316" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="317" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="B317" s="5">
         <v>2018</v>
@@ -17501,12 +17501,12 @@
         <v>0</v>
       </c>
       <c r="P317" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="B318" s="5">
         <v>2019</v>
@@ -17553,12 +17553,12 @@
         <v>0</v>
       </c>
       <c r="P318" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="B319" s="5">
         <v>2020</v>
@@ -17605,12 +17605,12 @@
         <v>0</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="320" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="B320" s="5">
         <v>2021</v>
@@ -17657,12 +17657,12 @@
         <v>0</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="B321" s="5">
         <v>2022</v>
@@ -17694,13 +17694,13 @@
         <v>0</v>
       </c>
       <c r="K321" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L321" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M321" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N321" s="5">
         <v>0</v>
@@ -17709,12 +17709,12 @@
         <v>0</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B322" s="5">
         <v>2018</v>
@@ -17761,12 +17761,12 @@
         <v>0</v>
       </c>
       <c r="P322" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B323" s="5">
         <v>2019</v>
@@ -17813,12 +17813,12 @@
         <v>0</v>
       </c>
       <c r="P323" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B324" s="5">
         <v>2020</v>
@@ -17865,12 +17865,12 @@
         <v>0</v>
       </c>
       <c r="P324" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="325" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B325" s="5">
         <v>2021</v>
@@ -17917,12 +17917,12 @@
         <v>0</v>
       </c>
       <c r="P325" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B326" s="5">
         <v>2022</v>
@@ -17969,12 +17969,12 @@
         <v>0</v>
       </c>
       <c r="P326" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B327" s="5">
         <v>2018</v>
@@ -18021,12 +18021,12 @@
         <v>0</v>
       </c>
       <c r="P327" s="5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B328" s="5">
         <v>2019</v>
@@ -18073,12 +18073,12 @@
         <v>0</v>
       </c>
       <c r="P328" s="5" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B329" s="5">
         <v>2020</v>
@@ -18125,12 +18125,12 @@
         <v>2</v>
       </c>
       <c r="P329" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="330" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B330" s="5">
         <v>2021</v>
@@ -18177,12 +18177,12 @@
         <v>3</v>
       </c>
       <c r="P330" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="331" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B331" s="5">
         <v>2022</v>
@@ -18229,12 +18229,12 @@
         <v>0</v>
       </c>
       <c r="P331" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="332" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="B332" s="5">
         <v>2018</v>
@@ -18281,12 +18281,12 @@
         <v>0</v>
       </c>
       <c r="P332" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="B333" s="5">
         <v>2019</v>
@@ -18333,12 +18333,12 @@
         <v>0</v>
       </c>
       <c r="P333" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="B334" s="5">
         <v>2020</v>
@@ -18385,12 +18385,12 @@
         <v>0</v>
       </c>
       <c r="P334" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="B335" s="5">
         <v>2021</v>
@@ -18437,12 +18437,12 @@
         <v>0</v>
       </c>
       <c r="P335" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="B336" s="5">
         <v>2022</v>
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="P336" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18541,7 +18541,7 @@
         <v>0</v>
       </c>
       <c r="P337" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="338" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="P338" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="P339" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="P340" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18749,7 +18749,7 @@
         <v>0</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18801,7 +18801,7 @@
         <v>0</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18853,7 +18853,7 @@
         <v>0</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18905,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="345" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18957,7 +18957,7 @@
         <v>0</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19009,7 +19009,7 @@
         <v>0</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="347" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19061,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19113,7 +19113,7 @@
         <v>0</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19165,7 +19165,7 @@
         <v>0</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19217,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="P350" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="351" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19269,7 +19269,7 @@
         <v>0</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19321,7 +19321,7 @@
         <v>0</v>
       </c>
       <c r="P352" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="354" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19477,7 +19477,7 @@
         <v>1</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="356" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19529,7 +19529,7 @@
         <v>0</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="358" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19633,7 +19633,7 @@
         <v>11</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="359" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19685,7 +19685,7 @@
         <v>0</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19737,7 +19737,7 @@
         <v>0</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="361" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19789,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19826,13 +19826,13 @@
         <v>0</v>
       </c>
       <c r="K362" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L362" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M362" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N362" s="5">
         <v>0</v>
@@ -19841,7 +19841,7 @@
         <v>0</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19893,7 +19893,7 @@
         <v>0</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19945,7 +19945,7 @@
         <v>0</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="365" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19997,7 +19997,7 @@
         <v>0</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="366" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20034,13 +20034,13 @@
         <v>0</v>
       </c>
       <c r="K366" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L366" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M366" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N366" s="5">
         <v>0</v>
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20101,7 +20101,7 @@
         <v>0</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20138,13 +20138,13 @@
         <v>0</v>
       </c>
       <c r="K368" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L368" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M368" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N368" s="5">
         <v>0</v>
@@ -20153,7 +20153,7 @@
         <v>0</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20190,13 +20190,13 @@
         <v>0</v>
       </c>
       <c r="K369" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L369" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M369" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N369" s="5">
         <v>0</v>
@@ -20205,7 +20205,7 @@
         <v>0</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20257,7 +20257,7 @@
         <v>0</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20294,13 +20294,13 @@
         <v>0</v>
       </c>
       <c r="K371" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L371" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M371" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N371" s="5">
         <v>0</v>
@@ -20309,7 +20309,7 @@
         <v>0</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20361,7 +20361,7 @@
         <v>0</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20413,7 +20413,7 @@
         <v>0</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="P374" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20517,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -20569,7 +20569,7 @@
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -20621,7 +20621,7 @@
         <v>0</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -20658,13 +20658,13 @@
         <v>0</v>
       </c>
       <c r="K378" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L378" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M378" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N378" s="5">
         <v>0</v>
@@ -20673,7 +20673,7 @@
         <v>0</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -20710,13 +20710,13 @@
         <v>0</v>
       </c>
       <c r="K379" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L379" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M379" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N379" s="5">
         <v>0</v>
@@ -20725,7 +20725,7 @@
         <v>0</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -20777,7 +20777,7 @@
         <v>0</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -20829,7 +20829,7 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -20881,7 +20881,7 @@
         <v>0</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -20918,13 +20918,13 @@
         <v>0</v>
       </c>
       <c r="K383" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L383" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M383" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N383" s="5">
         <v>0</v>
@@ -20933,7 +20933,7 @@
         <v>0</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -20985,7 +20985,7 @@
         <v>0</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="386" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -21089,7 +21089,7 @@
         <v>0</v>
       </c>
       <c r="P386" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="387" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21141,7 +21141,7 @@
         <v>0</v>
       </c>
       <c r="P387" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="388" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21193,7 +21193,7 @@
         <v>0</v>
       </c>
       <c r="P388" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="389" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21245,7 +21245,7 @@
         <v>0</v>
       </c>
       <c r="P389" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="390" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21297,7 +21297,7 @@
         <v>0</v>
       </c>
       <c r="P390" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="391" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21349,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="P391" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="P392" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21438,13 +21438,13 @@
         <v>0</v>
       </c>
       <c r="K393" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L393" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M393" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N393" s="5">
         <v>0</v>
@@ -21453,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="P393" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21490,13 +21490,13 @@
         <v>0</v>
       </c>
       <c r="K394" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L394" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M394" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N394" s="5">
         <v>0</v>
@@ -21505,7 +21505,7 @@
         <v>0</v>
       </c>
       <c r="P394" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21557,7 +21557,7 @@
         <v>0</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21594,13 +21594,13 @@
         <v>0</v>
       </c>
       <c r="K396" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L396" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M396" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N396" s="5">
         <v>0</v>
@@ -21609,7 +21609,7 @@
         <v>0</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21661,7 +21661,7 @@
         <v>0</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="398" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21713,7 +21713,7 @@
         <v>0</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="399" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21765,7 +21765,7 @@
         <v>0</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="400" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21817,7 +21817,7 @@
         <v>0</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="401" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21869,7 +21869,7 @@
         <v>0</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21921,7 +21921,7 @@
         <v>0</v>
       </c>
       <c r="P402" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="403" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -21973,7 +21973,7 @@
         <v>7</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="404" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22025,7 +22025,7 @@
         <v>2</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="405" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22077,7 +22077,7 @@
         <v>0</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="406" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22129,7 +22129,7 @@
         <v>0</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="407" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22181,7 +22181,7 @@
         <v>0</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22233,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="P408" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="409" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22270,13 +22270,13 @@
         <v>0</v>
       </c>
       <c r="K409" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L409" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M409" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N409" s="5">
         <v>0</v>
@@ -22285,7 +22285,7 @@
         <v>0</v>
       </c>
       <c r="P409" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22337,7 +22337,7 @@
         <v>0</v>
       </c>
       <c r="P410" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="411" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22374,13 +22374,13 @@
         <v>0</v>
       </c>
       <c r="K411" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L411" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M411" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N411" s="5">
         <v>0</v>
@@ -22389,7 +22389,7 @@
         <v>0</v>
       </c>
       <c r="P411" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22441,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="P412" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22493,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="P413" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="414" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22545,7 +22545,7 @@
         <v>0</v>
       </c>
       <c r="P414" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22634,13 +22634,13 @@
         <v>0</v>
       </c>
       <c r="K416" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L416" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M416" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N416" s="5">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="417" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22701,7 +22701,7 @@
         <v>0</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="P418" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22805,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="420" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22857,7 +22857,7 @@
         <v>0</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22894,13 +22894,13 @@
         <v>0</v>
       </c>
       <c r="K421" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L421" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M421" s="5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N421" s="5">
         <v>0</v>
@@ -22909,7 +22909,7 @@
         <v>0</v>
       </c>
       <c r="P421" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22961,7 +22961,7 @@
         <v>0</v>
       </c>
       <c r="P422" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="423" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23013,7 +23013,7 @@
         <v>0</v>
       </c>
       <c r="P423" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="P424" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="425" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="P425" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="426" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23169,7 +23169,7 @@
         <v>0</v>
       </c>
       <c r="P426" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23221,7 +23221,7 @@
         <v>8</v>
       </c>
       <c r="P427" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="428" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="P428" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="429" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23325,7 +23325,7 @@
         <v>8</v>
       </c>
       <c r="P429" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="430" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23429,7 +23429,7 @@
         <v>0</v>
       </c>
       <c r="P431" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="432" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="P432" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="433" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23533,7 +23533,7 @@
         <v>0</v>
       </c>
       <c r="P433" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="435" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23637,7 +23637,7 @@
         <v>0</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="436" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -23689,7 +23689,7 @@
         <v>0</v>
       </c>
       <c r="P436" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23793,7 +23793,7 @@
         <v>0</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="439" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23845,7 +23845,7 @@
         <v>0</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="440" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23897,7 +23897,7 @@
         <v>2</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="441" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="P441" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="442" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="P442" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="443" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="P443" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="444" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="445" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24157,7 +24157,7 @@
         <v>0</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24209,12 +24209,12 @@
         <v>2</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A447" s="4" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B447" s="5">
         <v>2018</v>
@@ -24261,12 +24261,12 @@
         <v>0</v>
       </c>
       <c r="P447" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="448" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="4" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B448" s="5">
         <v>2019</v>
@@ -24313,12 +24313,12 @@
         <v>0</v>
       </c>
       <c r="P448" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="449" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A449" s="4" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B449" s="5">
         <v>2020</v>
@@ -24365,12 +24365,12 @@
         <v>0</v>
       </c>
       <c r="P449" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="450" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A450" s="4" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B450" s="5">
         <v>2021</v>
@@ -24417,12 +24417,12 @@
         <v>0</v>
       </c>
       <c r="P450" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="451" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="4" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B451" s="5">
         <v>2022</v>
@@ -24469,12 +24469,12 @@
         <v>0</v>
       </c>
       <c r="P451" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B452" s="5">
         <v>2018</v>
@@ -24521,12 +24521,12 @@
         <v>0</v>
       </c>
       <c r="P452" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="453" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A453" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B453" s="5">
         <v>2019</v>
@@ -24578,7 +24578,7 @@
     </row>
     <row r="454" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A454" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B454" s="5">
         <v>2020</v>
@@ -24625,12 +24625,12 @@
         <v>0</v>
       </c>
       <c r="P454" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="455" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A455" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B455" s="5">
         <v>2021</v>
@@ -24677,12 +24677,12 @@
         <v>0</v>
       </c>
       <c r="P455" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="456" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B456" s="5">
         <v>2022</v>
@@ -24729,12 +24729,12 @@
         <v>0</v>
       </c>
       <c r="P456" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="457" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A457" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B457" s="5">
         <v>2018</v>
@@ -24781,12 +24781,12 @@
         <v>4</v>
       </c>
       <c r="P457" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="458" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B458" s="5">
         <v>2019</v>
@@ -24833,12 +24833,12 @@
         <v>0</v>
       </c>
       <c r="P458" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="459" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A459" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B459" s="5">
         <v>2020</v>
@@ -24885,12 +24885,12 @@
         <v>0</v>
       </c>
       <c r="P459" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="460" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A460" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B460" s="5">
         <v>2021</v>
@@ -24937,12 +24937,12 @@
         <v>0</v>
       </c>
       <c r="P460" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="461" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B461" s="5">
         <v>2022</v>
@@ -24989,12 +24989,12 @@
         <v>0</v>
       </c>
       <c r="P461" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="462" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B462" s="5">
         <v>2018</v>
@@ -25041,12 +25041,12 @@
         <v>0</v>
       </c>
       <c r="P462" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="463" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A463" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B463" s="5">
         <v>2019</v>
@@ -25093,12 +25093,12 @@
         <v>0</v>
       </c>
       <c r="P463" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="464" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B464" s="5">
         <v>2020</v>
@@ -25145,12 +25145,12 @@
         <v>0</v>
       </c>
       <c r="P464" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="465" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A465" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B465" s="5">
         <v>2021</v>
@@ -25197,12 +25197,12 @@
         <v>0</v>
       </c>
       <c r="P465" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="466" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B466" s="5">
         <v>2022</v>
@@ -25249,12 +25249,12 @@
         <v>0</v>
       </c>
       <c r="P466" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="467" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A467" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B467" s="5">
         <v>2018</v>
@@ -25301,12 +25301,12 @@
         <v>0</v>
       </c>
       <c r="P467" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="468" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A468" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B468" s="5">
         <v>2019</v>
@@ -25353,12 +25353,12 @@
         <v>0</v>
       </c>
       <c r="P468" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="469" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A469" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B469" s="5">
         <v>2020</v>
@@ -25405,12 +25405,12 @@
         <v>0</v>
       </c>
       <c r="P469" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A470" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B470" s="5">
         <v>2021</v>
@@ -25457,12 +25457,12 @@
         <v>0</v>
       </c>
       <c r="P470" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="471" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A471" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B471" s="5">
         <v>2022</v>
@@ -25509,12 +25509,12 @@
         <v>0</v>
       </c>
       <c r="P471" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="472" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A472" s="4" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B472" s="5">
         <v>2018</v>
@@ -25561,12 +25561,12 @@
         <v>0</v>
       </c>
       <c r="P472" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="473" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="4" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B473" s="5">
         <v>2019</v>
@@ -25613,12 +25613,12 @@
         <v>7</v>
       </c>
       <c r="P473" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="474" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="4" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B474" s="5">
         <v>2020</v>
@@ -25665,12 +25665,12 @@
         <v>0</v>
       </c>
       <c r="P474" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="475" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="4" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B475" s="5">
         <v>2021</v>
@@ -25717,12 +25717,12 @@
         <v>0</v>
       </c>
       <c r="P475" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="476" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="4" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B476" s="5">
         <v>2022</v>
@@ -25769,12 +25769,12 @@
         <v>0</v>
       </c>
       <c r="P476" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="477" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A477" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B477" s="5">
         <v>2018</v>
@@ -25821,12 +25821,12 @@
         <v>0</v>
       </c>
       <c r="P477" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="478" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A478" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B478" s="5">
         <v>2019</v>
@@ -25873,12 +25873,12 @@
         <v>0</v>
       </c>
       <c r="P478" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="479" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B479" s="5">
         <v>2020</v>
@@ -25925,12 +25925,12 @@
         <v>0</v>
       </c>
       <c r="P479" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="480" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B480" s="5">
         <v>2021</v>
@@ -25977,12 +25977,12 @@
         <v>3</v>
       </c>
       <c r="P480" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="481" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B481" s="5">
         <v>2022</v>
@@ -26029,12 +26029,12 @@
         <v>1</v>
       </c>
       <c r="P481" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="482" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A482" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B482" s="5">
         <v>2018</v>
@@ -26081,12 +26081,12 @@
         <v>0</v>
       </c>
       <c r="P482" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="483" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A483" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B483" s="5">
         <v>2019</v>
@@ -26133,12 +26133,12 @@
         <v>0</v>
       </c>
       <c r="P483" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="484" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A484" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B484" s="5">
         <v>2020</v>
@@ -26185,12 +26185,12 @@
         <v>0</v>
       </c>
       <c r="P484" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="485" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A485" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B485" s="5">
         <v>2021</v>
@@ -26237,12 +26237,12 @@
         <v>2</v>
       </c>
       <c r="P485" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="486" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A486" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B486" s="5">
         <v>2022</v>
@@ -26289,12 +26289,12 @@
         <v>0</v>
       </c>
       <c r="P486" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="487" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B487" s="5">
         <v>2018</v>
@@ -26341,12 +26341,12 @@
         <v>0</v>
       </c>
       <c r="P487" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="488" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A488" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B488" s="5">
         <v>2019</v>
@@ -26393,12 +26393,12 @@
         <v>0</v>
       </c>
       <c r="P488" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="489" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B489" s="5">
         <v>2020</v>
@@ -26445,12 +26445,12 @@
         <v>2</v>
       </c>
       <c r="P489" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="490" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A490" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B490" s="5">
         <v>2021</v>
@@ -26497,12 +26497,12 @@
         <v>2</v>
       </c>
       <c r="P490" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="491" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A491" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B491" s="5">
         <v>2022</v>
@@ -26549,12 +26549,12 @@
         <v>0</v>
       </c>
       <c r="P491" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="492" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A492" s="4" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B492" s="5">
         <v>2018</v>
@@ -26601,12 +26601,12 @@
         <v>0</v>
       </c>
       <c r="P492" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="493" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A493" s="4" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B493" s="5">
         <v>2019</v>
@@ -26653,12 +26653,12 @@
         <v>0</v>
       </c>
       <c r="P493" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="494" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="4" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B494" s="5">
         <v>2020</v>
@@ -26705,12 +26705,12 @@
         <v>0</v>
       </c>
       <c r="P494" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="495" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="4" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B495" s="5">
         <v>2021</v>
@@ -26757,12 +26757,12 @@
         <v>0</v>
       </c>
       <c r="P495" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="496" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="4" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B496" s="5">
         <v>2022</v>
@@ -26809,12 +26809,12 @@
         <v>0</v>
       </c>
       <c r="P496" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="497" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B497" s="5">
         <v>2018</v>
@@ -26861,12 +26861,12 @@
         <v>0</v>
       </c>
       <c r="P497" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="498" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A498" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B498" s="5">
         <v>2019</v>
@@ -26913,12 +26913,12 @@
         <v>12</v>
       </c>
       <c r="P498" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="499" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A499" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B499" s="5">
         <v>2020</v>
@@ -26965,12 +26965,12 @@
         <v>3</v>
       </c>
       <c r="P499" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="500" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B500" s="5">
         <v>2021</v>
@@ -27017,12 +27017,12 @@
         <v>0</v>
       </c>
       <c r="P500" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="501" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A501" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B501" s="5">
         <v>2022</v>
@@ -27069,12 +27069,12 @@
         <v>0</v>
       </c>
       <c r="P501" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="502" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A502" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B502" s="5">
         <v>2018</v>
@@ -27121,12 +27121,12 @@
         <v>0</v>
       </c>
       <c r="P502" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="503" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A503" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B503" s="5">
         <v>2019</v>
@@ -27173,12 +27173,12 @@
         <v>20</v>
       </c>
       <c r="P503" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="504" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A504" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B504" s="5">
         <v>2020</v>
@@ -27225,12 +27225,12 @@
         <v>15</v>
       </c>
       <c r="P504" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="505" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A505" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B505" s="5">
         <v>2021</v>
@@ -27277,12 +27277,12 @@
         <v>8</v>
       </c>
       <c r="P505" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="506" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A506" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B506" s="5">
         <v>2022</v>
@@ -27329,12 +27329,12 @@
         <v>0</v>
       </c>
       <c r="P506" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="507" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A507" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B507" s="5">
         <v>2018</v>
@@ -27381,12 +27381,12 @@
         <v>0</v>
       </c>
       <c r="P507" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="508" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A508" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B508" s="5">
         <v>2019</v>
@@ -27433,12 +27433,12 @@
         <v>0</v>
       </c>
       <c r="P508" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="509" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A509" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B509" s="5">
         <v>2020</v>
@@ -27485,12 +27485,12 @@
         <v>0</v>
       </c>
       <c r="P509" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="510" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A510" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B510" s="5">
         <v>2021</v>
@@ -27537,12 +27537,12 @@
         <v>0</v>
       </c>
       <c r="P510" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="511" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A511" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B511" s="5">
         <v>2022</v>
@@ -27589,12 +27589,12 @@
         <v>0</v>
       </c>
       <c r="P511" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="512" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A512" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B512" s="5">
         <v>2018</v>
@@ -27641,12 +27641,12 @@
         <v>0</v>
       </c>
       <c r="P512" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="513" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A513" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B513" s="5">
         <v>2019</v>
@@ -27698,7 +27698,7 @@
     </row>
     <row r="514" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A514" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B514" s="5">
         <v>2020</v>
@@ -27745,12 +27745,12 @@
         <v>7</v>
       </c>
       <c r="P514" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="515" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A515" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B515" s="5">
         <v>2021</v>
@@ -27797,12 +27797,12 @@
         <v>5</v>
       </c>
       <c r="P515" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="516" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A516" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B516" s="5">
         <v>2022</v>
@@ -27849,12 +27849,12 @@
         <v>0</v>
       </c>
       <c r="P516" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="517" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A517" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B517" s="5">
         <v>2018</v>
@@ -27901,12 +27901,12 @@
         <v>0</v>
       </c>
       <c r="P517" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="518" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A518" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B518" s="5">
         <v>2019</v>
@@ -27953,12 +27953,12 @@
         <v>0</v>
       </c>
       <c r="P518" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="519" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A519" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B519" s="5">
         <v>2020</v>
@@ -28005,12 +28005,12 @@
         <v>8</v>
       </c>
       <c r="P519" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="520" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A520" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B520" s="5">
         <v>2021</v>
@@ -28057,12 +28057,12 @@
         <v>0</v>
       </c>
       <c r="P520" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="521" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B521" s="5">
         <v>2022</v>
@@ -28109,12 +28109,12 @@
         <v>0</v>
       </c>
       <c r="P521" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="522" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A522" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B522" s="5">
         <v>2018</v>
@@ -28161,12 +28161,12 @@
         <v>0</v>
       </c>
       <c r="P522" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="523" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A523" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B523" s="5">
         <v>2019</v>
@@ -28213,12 +28213,12 @@
         <v>4</v>
       </c>
       <c r="P523" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="524" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A524" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B524" s="5">
         <v>2020</v>
@@ -28265,12 +28265,12 @@
         <v>5</v>
       </c>
       <c r="P524" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="525" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A525" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B525" s="5">
         <v>2021</v>
@@ -28317,12 +28317,12 @@
         <v>8</v>
       </c>
       <c r="P525" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="526" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A526" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B526" s="5">
         <v>2022</v>
@@ -28369,12 +28369,12 @@
         <v>0</v>
       </c>
       <c r="P526" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="527" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A527" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B527" s="5">
         <v>2018</v>
@@ -28421,12 +28421,12 @@
         <v>0</v>
       </c>
       <c r="P527" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="528" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A528" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B528" s="5">
         <v>2019</v>
@@ -28473,12 +28473,12 @@
         <v>10</v>
       </c>
       <c r="P528" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="529" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A529" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B529" s="5">
         <v>2020</v>
@@ -28525,12 +28525,12 @@
         <v>7</v>
       </c>
       <c r="P529" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="530" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B530" s="5">
         <v>2021</v>
@@ -28577,12 +28577,12 @@
         <v>7</v>
       </c>
       <c r="P530" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="531" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A531" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B531" s="5">
         <v>2022</v>
@@ -28629,7 +28629,7 @@
         <v>1</v>
       </c>
       <c r="P531" s="5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/IPI.xlsx
+++ b/IPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eleonora\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E806DA47-AE42-44DC-AE04-16D0B9452C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3375688-944E-442F-9763-CF694BC313B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96F39540-9684-48B6-8573-235D3F301316}"/>
   </bookViews>
@@ -530,7 +530,7 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>L' Aquila</t>
+    <t>L'Aquila</t>
   </si>
   <si>
     <t>Reggio di Calabria</t>
@@ -540,9 +540,6 @@
   </si>
   <si>
     <t>Forlì-Cesena</t>
-  </si>
-  <si>
-    <t>Reggio nell' Emilia</t>
   </si>
   <si>
     <t>La Spezia</t>
@@ -563,13 +560,16 @@
     <t>Barletta-Andria-Trani</t>
   </si>
   <si>
-    <t>Massa Carrara</t>
-  </si>
-  <si>
     <t>Bolzano/Bozen</t>
   </si>
   <si>
     <t>Valle d'Aosta/Vallée d'Aoste</t>
+  </si>
+  <si>
+    <t>Reggio nell'Emilia</t>
+  </si>
+  <si>
+    <t>Massa-Carrara</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A576D09B-E1C5-47C0-88E2-DE6DD4FBDF0A}">
   <dimension ref="A1:P531"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B536" sqref="B536"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="B448" sqref="B448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="117" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B117" s="5">
         <v>2018</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="118" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B118" s="5">
         <v>2019</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="119" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B119" s="5">
         <v>2020</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="120" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B120" s="5">
         <v>2021</v>
@@ -7262,7 +7262,7 @@
     </row>
     <row r="121" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B121" s="5">
         <v>2022</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="182" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B182" s="5">
         <v>2018</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="183" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B183" s="5">
         <v>2019</v>
@@ -10538,7 +10538,7 @@
     </row>
     <row r="184" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B184" s="5">
         <v>2020</v>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="185" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B185" s="5">
         <v>2021</v>
@@ -10642,7 +10642,7 @@
     </row>
     <row r="186" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B186" s="5">
         <v>2022</v>
@@ -13034,7 +13034,7 @@
     </row>
     <row r="232" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B232" s="5">
         <v>2018</v>
@@ -13086,7 +13086,7 @@
     </row>
     <row r="233" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B233" s="5">
         <v>2019</v>
@@ -13138,7 +13138,7 @@
     </row>
     <row r="234" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B234" s="5">
         <v>2020</v>
@@ -13190,7 +13190,7 @@
     </row>
     <row r="235" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B235" s="5">
         <v>2021</v>
@@ -13242,7 +13242,7 @@
     </row>
     <row r="236" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B236" s="5">
         <v>2022</v>
@@ -14334,7 +14334,7 @@
     </row>
     <row r="257" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B257" s="5">
         <v>2018</v>
@@ -14386,7 +14386,7 @@
     </row>
     <row r="258" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B258" s="5">
         <v>2019</v>
@@ -14438,7 +14438,7 @@
     </row>
     <row r="259" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B259" s="5">
         <v>2020</v>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="260" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B260" s="5">
         <v>2021</v>
@@ -14542,7 +14542,7 @@
     </row>
     <row r="261" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B261" s="5">
         <v>2022</v>
@@ -15114,7 +15114,7 @@
     </row>
     <row r="272" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B272" s="5">
         <v>2018</v>
@@ -15166,7 +15166,7 @@
     </row>
     <row r="273" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B273" s="5">
         <v>2019</v>
@@ -15218,7 +15218,7 @@
     </row>
     <row r="274" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B274" s="5">
         <v>2020</v>
@@ -15270,7 +15270,7 @@
     </row>
     <row r="275" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B275" s="5">
         <v>2021</v>
@@ -15322,7 +15322,7 @@
     </row>
     <row r="276" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B276" s="5">
         <v>2022</v>
@@ -17454,7 +17454,7 @@
     </row>
     <row r="317" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B317" s="5">
         <v>2018</v>
@@ -17506,7 +17506,7 @@
     </row>
     <row r="318" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B318" s="5">
         <v>2019</v>
@@ -17558,7 +17558,7 @@
     </row>
     <row r="319" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B319" s="5">
         <v>2020</v>
@@ -17610,7 +17610,7 @@
     </row>
     <row r="320" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B320" s="5">
         <v>2021</v>
@@ -17662,7 +17662,7 @@
     </row>
     <row r="321" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B321" s="5">
         <v>2022</v>
@@ -18234,7 +18234,7 @@
     </row>
     <row r="332" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B332" s="5">
         <v>2018</v>
@@ -18286,7 +18286,7 @@
     </row>
     <row r="333" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B333" s="5">
         <v>2019</v>
@@ -18338,7 +18338,7 @@
     </row>
     <row r="334" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B334" s="5">
         <v>2020</v>
@@ -18390,7 +18390,7 @@
     </row>
     <row r="335" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B335" s="5">
         <v>2021</v>
@@ -18442,7 +18442,7 @@
     </row>
     <row r="336" spans="1:16" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B336" s="5">
         <v>2022</v>
@@ -24214,7 +24214,7 @@
     </row>
     <row r="447" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A447" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B447" s="5">
         <v>2018</v>
@@ -24266,7 +24266,7 @@
     </row>
     <row r="448" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B448" s="5">
         <v>2019</v>
@@ -24318,7 +24318,7 @@
     </row>
     <row r="449" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A449" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B449" s="5">
         <v>2020</v>
@@ -24370,7 +24370,7 @@
     </row>
     <row r="450" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A450" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B450" s="5">
         <v>2021</v>
@@ -24422,7 +24422,7 @@
     </row>
     <row r="451" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B451" s="5">
         <v>2022</v>
@@ -25514,7 +25514,7 @@
     </row>
     <row r="472" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A472" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B472" s="5">
         <v>2018</v>
@@ -25566,7 +25566,7 @@
     </row>
     <row r="473" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B473" s="5">
         <v>2019</v>
@@ -25618,7 +25618,7 @@
     </row>
     <row r="474" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B474" s="5">
         <v>2020</v>
@@ -25670,7 +25670,7 @@
     </row>
     <row r="475" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B475" s="5">
         <v>2021</v>
@@ -25722,7 +25722,7 @@
     </row>
     <row r="476" spans="1:16" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B476" s="5">
         <v>2022</v>
@@ -26554,7 +26554,7 @@
     </row>
     <row r="492" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A492" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B492" s="5">
         <v>2018</v>
@@ -26606,7 +26606,7 @@
     </row>
     <row r="493" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A493" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B493" s="5">
         <v>2019</v>
@@ -26658,7 +26658,7 @@
     </row>
     <row r="494" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B494" s="5">
         <v>2020</v>
@@ -26710,7 +26710,7 @@
     </row>
     <row r="495" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B495" s="5">
         <v>2021</v>
@@ -26762,7 +26762,7 @@
     </row>
     <row r="496" spans="1:16" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B496" s="5">
         <v>2022</v>
